--- a/InterfaceAuto/data/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Intelligent_mediation\InterfaceAuto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutoTest\InterfaceAuto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E0C7F1-DE9B-44AD-9090-F0B5F158EF23}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06FD175-E3C3-4DCB-B721-CFC49DD85066}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300840" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="304110" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="224">
   <si>
     <t>Run</t>
   </si>
@@ -530,10 +530,6 @@
     <t>caseId=0440105018000620180119
 type=9
 files=data\卷宗情况说明.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台报错</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1442,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247054AC-4A85-4F3A-AC0A-7852403F80C7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1455,19 +1451,19 @@
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1478,62 +1474,62 @@
     </row>
     <row r="2" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
         <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
         <v>198</v>
-      </c>
-      <c r="G3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
         <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1563,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1611,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1636,27 +1632,21 @@
     </row>
     <row r="3" spans="1:5" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>122</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>117</v>
@@ -1687,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1758,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1878,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1987,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469935D5-C75B-4C0A-9688-398828BDC568}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2001,19 +1991,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2024,27 +2014,27 @@
     </row>
     <row r="2" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2053,32 +2043,32 @@
         <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2087,92 +2077,92 @@
         <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
         <v>149</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="114" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="F9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
         <v>174</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>109</v>
@@ -2180,47 +2170,47 @@
     </row>
     <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="F12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C13" t="s">
         <v>45</v>
@@ -2237,10 +2227,10 @@
     </row>
     <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
@@ -2249,18 +2239,18 @@
         <v>90</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
         <v>45</v>
@@ -2277,10 +2267,10 @@
     </row>
     <row r="16" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>45</v>
@@ -2289,18 +2279,18 @@
         <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -2317,16 +2307,16 @@
     </row>
     <row r="18" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>109</v>
@@ -2334,22 +2324,22 @@
     </row>
     <row r="19" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2363,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{094BE1B7-1080-4268-BDCA-ADBADF076D4C}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2377,19 +2367,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2400,16 +2390,16 @@
     </row>
     <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
         <v>103</v>
@@ -2417,10 +2407,10 @@
     </row>
     <row r="3" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2429,32 +2419,32 @@
         <v>82</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -2463,92 +2453,92 @@
         <v>82</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
         <v>149</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="F9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
         <v>174</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>109</v>
@@ -2556,53 +2546,53 @@
     </row>
     <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>109</v>
@@ -2610,22 +2600,22 @@
     </row>
     <row r="14" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2639,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8245F7F0-F11E-42FD-BE73-398F082B626B}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2655,19 +2645,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" t="s">
         <v>134</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2678,16 +2668,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>138</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G2" t="s">
         <v>119</v>
@@ -2695,16 +2685,16 @@
     </row>
     <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
         <v>141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>142</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>119</v>
@@ -2712,47 +2702,47 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
         <v>149</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
         <v>103</v>
@@ -2760,10 +2750,10 @@
     </row>
     <row r="7" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
         <v>152</v>
-      </c>
-      <c r="B7" t="s">
-        <v>153</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -2772,35 +2762,35 @@
         <v>82</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="171" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="E8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -2809,81 +2799,81 @@
         <v>82</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
         <v>160</v>
       </c>
-      <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F11" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
         <v>164</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2897,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2915,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2949,7 +2939,7 @@
         <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3014,7 +3004,6 @@
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
@@ -3090,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3172,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3195,7 +3184,7 @@
         <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3226,10 +3215,10 @@
         <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3260,10 +3249,10 @@
         <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -3353,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3429,7 +3418,7 @@
         <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="114" x14ac:dyDescent="0.2">
@@ -3451,7 +3440,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3465,7 +3454,7 @@
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3499,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>

--- a/InterfaceAuto/data/Intelligent_mediation.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutoTest\InterfaceAuto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06FD175-E3C3-4DCB-B721-CFC49DD85066}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418B8568-5A11-4656-A9FA-0093D6CACD24}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="304110" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="305745" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="record_flow" sheetId="15" r:id="rId1"/>
@@ -1852,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -2887,7 +2887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
